--- a/Ort_Land_Tabelle.xlsx
+++ b/Ort_Land_Tabelle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurinschucan/Documents/Maurin/Lehre/ZLI/Development_Fundamentals/Project_Happy_Place/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurinschucan/Documents/Arbeit/Lehre/ZLI/Development_Fundamentals/Project_Happy_Place/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B0B7A8-E0EA-6241-BA56-8D86EE25860E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EF84ED-7236-F44A-BFC8-B317F5C141A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{6E556217-A9CC-D345-BCEE-F76D1451A9A9}"/>
   </bookViews>

--- a/Ort_Land_Tabelle.xlsx
+++ b/Ort_Land_Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurinschucan/Documents/Arbeit/Lehre/ZLI/Development_Fundamentals/Project_Happy_Place/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EF84ED-7236-F44A-BFC8-B317F5C141A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F740F2-01A0-C641-B008-A1AB804DAE40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{6E556217-A9CC-D345-BCEE-F76D1451A9A9}"/>
   </bookViews>

--- a/Ort_Land_Tabelle.xlsx
+++ b/Ort_Land_Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurinschucan/Documents/Arbeit/Lehre/ZLI/Development_Fundamentals/Project_Happy_Place/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F740F2-01A0-C641-B008-A1AB804DAE40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3CA307-BBC7-8B46-A1FE-5EE4DFA7282B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{6E556217-A9CC-D345-BCEE-F76D1451A9A9}"/>
   </bookViews>
@@ -11362,11 +11362,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD598479-49C5-6C4F-BA2A-632F9F079FED}">
   <dimension ref="A1:E3456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3445" sqref="H3445"/>
+    <sheetView tabSelected="1" topLeftCell="A2736" workbookViewId="0">
+      <selection activeCell="H1577" sqref="H1577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
